--- a/data/Engine_Sample.xlsx
+++ b/data/Engine_Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daimler_projects\Fuso_project\Fuso_Entire_vehicle_automation\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DHILITP\OneDrive\Daimler_projects\Fuso_project\GUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -835,127 +835,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,7 +868,70 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,22 +943,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15572,6 +15572,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15689,6 +15690,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15792,6 +15794,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15887,6 +15890,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -30492,468 +30496,468 @@
   <sheetData>
     <row r="1" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36">
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90">
         <v>2</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="35">
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="89">
         <v>3</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="35">
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="89">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="35">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="89">
         <v>5</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="35">
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="89">
         <v>6</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="35">
+      <c r="V2" s="90"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="89">
         <v>7</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="35">
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="89">
         <v>8</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="35">
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="89">
         <v>9</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="35">
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="89">
         <v>10</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="35">
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="89">
         <v>11</v>
       </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="35">
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="89">
         <v>12</v>
       </c>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="35">
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="89">
         <v>13</v>
       </c>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="35">
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="89">
         <v>14</v>
       </c>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="35">
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="89">
         <v>15</v>
       </c>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="35">
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="89">
         <v>16</v>
       </c>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="35">
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="91"/>
+      <c r="BB2" s="89">
         <v>17</v>
       </c>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="35">
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="91"/>
+      <c r="BE2" s="89">
         <v>18</v>
       </c>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="35">
+      <c r="BF2" s="90"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="89">
         <v>19</v>
       </c>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="35">
+      <c r="BI2" s="90"/>
+      <c r="BJ2" s="91"/>
+      <c r="BK2" s="89">
         <v>20</v>
       </c>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="37"/>
+      <c r="BL2" s="90"/>
+      <c r="BM2" s="91"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40">
+      <c r="B3" s="36"/>
+      <c r="C3" s="92">
         <v>20211216</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="44"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="87"/>
+      <c r="BA3" s="88"/>
+      <c r="BB3" s="86"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="88"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="87"/>
+      <c r="BG3" s="88"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="87"/>
+      <c r="BJ3" s="88"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="87"/>
+      <c r="BM3" s="88"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="49"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="49"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="48"/>
-      <c r="BM4" s="49"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="75"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="75"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="74"/>
+      <c r="BM4" s="75"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="49"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="49"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="73"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="73"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="73"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="75"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="54"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="54"/>
-      <c r="BH6" s="51"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="54"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="54"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="81"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="81"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="81"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="83"/>
+      <c r="BE6" s="81"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="83"/>
+      <c r="BH6" s="81"/>
+      <c r="BI6" s="82"/>
+      <c r="BJ6" s="83"/>
+      <c r="BK6" s="81"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="83"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="47"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="47"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="47"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="47"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="47"/>
-      <c r="BL7" s="48"/>
-      <c r="BM7" s="49"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="75"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="75"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="74"/>
+      <c r="BM7" s="75"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -30962,71 +30966,71 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="73">
         <v>96</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="58"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="58"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="58"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="58"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="58"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="58"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="58"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="58"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="76"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="78"/>
+      <c r="BB8" s="76"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="78"/>
+      <c r="BE8" s="76"/>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="78"/>
+      <c r="BH8" s="76"/>
+      <c r="BI8" s="77"/>
+      <c r="BJ8" s="78"/>
+      <c r="BK8" s="76"/>
+      <c r="BL8" s="77"/>
+      <c r="BM8" s="78"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -31035,71 +31039,71 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="73">
         <v>3050</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="49"/>
-      <c r="AV9" s="47"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="47"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="49"/>
-      <c r="BB9" s="47"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="49"/>
-      <c r="BE9" s="47"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="49"/>
-      <c r="BH9" s="47"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="49"/>
-      <c r="BK9" s="47"/>
-      <c r="BL9" s="48"/>
-      <c r="BM9" s="49"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="73"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="73"/>
+      <c r="BF9" s="74"/>
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="73"/>
+      <c r="BL9" s="74"/>
+      <c r="BM9" s="75"/>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -31108,71 +31112,71 @@
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="73">
         <v>300</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="58"/>
-      <c r="AY10" s="56"/>
-      <c r="AZ10" s="57"/>
-      <c r="BA10" s="58"/>
-      <c r="BB10" s="56"/>
-      <c r="BC10" s="57"/>
-      <c r="BD10" s="58"/>
-      <c r="BE10" s="56"/>
-      <c r="BF10" s="57"/>
-      <c r="BG10" s="58"/>
-      <c r="BH10" s="56"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="58"/>
-      <c r="BK10" s="56"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="58"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="78"/>
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="77"/>
+      <c r="BM10" s="78"/>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -31181,71 +31185,71 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="73">
         <v>1600</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="49"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="49"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="49"/>
-      <c r="BE11" s="47"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="49"/>
-      <c r="BH11" s="47"/>
-      <c r="BI11" s="48"/>
-      <c r="BJ11" s="49"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="48"/>
-      <c r="BM11" s="49"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="73"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="75"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="75"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="73"/>
+      <c r="BF11" s="74"/>
+      <c r="BG11" s="75"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="74"/>
+      <c r="BJ11" s="75"/>
+      <c r="BK11" s="73"/>
+      <c r="BL11" s="74"/>
+      <c r="BM11" s="75"/>
     </row>
     <row r="12" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -31254,71 +31258,71 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="68">
         <v>4000</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="64"/>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="64"/>
-      <c r="BC12" s="62"/>
-      <c r="BD12" s="65"/>
-      <c r="BE12" s="64"/>
-      <c r="BF12" s="62"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="64"/>
-      <c r="BI12" s="62"/>
-      <c r="BJ12" s="65"/>
-      <c r="BK12" s="64"/>
-      <c r="BL12" s="62"/>
-      <c r="BM12" s="65"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="62"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="62"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="62"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="62"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="62"/>
+      <c r="BB12" s="60"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="62"/>
+      <c r="BE12" s="60"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="62"/>
+      <c r="BH12" s="60"/>
+      <c r="BI12" s="61"/>
+      <c r="BJ12" s="62"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="61"/>
+      <c r="BM12" s="62"/>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -31327,361 +31331,361 @@
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="63">
         <v>1</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="66"/>
-      <c r="BC13" s="67"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="66"/>
-      <c r="BF13" s="67"/>
-      <c r="BG13" s="69"/>
-      <c r="BH13" s="66"/>
-      <c r="BI13" s="67"/>
-      <c r="BJ13" s="69"/>
-      <c r="BK13" s="66"/>
-      <c r="BL13" s="67"/>
-      <c r="BM13" s="69"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="57"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="57"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="57"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="57"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="59"/>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="92" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="73"/>
-      <c r="AY14" s="71"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="73"/>
-      <c r="BB14" s="71"/>
-      <c r="BC14" s="72"/>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="71"/>
-      <c r="BF14" s="72"/>
-      <c r="BG14" s="73"/>
-      <c r="BH14" s="71"/>
-      <c r="BI14" s="72"/>
-      <c r="BJ14" s="73"/>
-      <c r="BK14" s="71"/>
-      <c r="BL14" s="72"/>
-      <c r="BM14" s="73"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="54"/>
+      <c r="BC14" s="52"/>
+      <c r="BD14" s="55"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="52"/>
+      <c r="BG14" s="55"/>
+      <c r="BH14" s="54"/>
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="55"/>
+      <c r="BK14" s="54"/>
+      <c r="BL14" s="52"/>
+      <c r="BM14" s="55"/>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="92" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="71"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="73"/>
-      <c r="AY15" s="71"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="73"/>
-      <c r="BB15" s="71"/>
-      <c r="BC15" s="72"/>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="71"/>
-      <c r="BF15" s="72"/>
-      <c r="BG15" s="73"/>
-      <c r="BH15" s="71"/>
-      <c r="BI15" s="72"/>
-      <c r="BJ15" s="73"/>
-      <c r="BK15" s="71"/>
-      <c r="BL15" s="72"/>
-      <c r="BM15" s="73"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="55"/>
+      <c r="BB15" s="54"/>
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="55"/>
+      <c r="BE15" s="54"/>
+      <c r="BF15" s="52"/>
+      <c r="BG15" s="55"/>
+      <c r="BH15" s="54"/>
+      <c r="BI15" s="52"/>
+      <c r="BJ15" s="55"/>
+      <c r="BK15" s="54"/>
+      <c r="BL15" s="52"/>
+      <c r="BM15" s="55"/>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="92" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="71"/>
-      <c r="BF16" s="72"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="72"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="72"/>
-      <c r="BM16" s="73"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="55"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="55"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="55"/>
+      <c r="BB16" s="54"/>
+      <c r="BC16" s="52"/>
+      <c r="BD16" s="55"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="55"/>
+      <c r="BH16" s="54"/>
+      <c r="BI16" s="52"/>
+      <c r="BJ16" s="55"/>
+      <c r="BK16" s="54"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="55"/>
     </row>
     <row r="17" spans="1:65" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="80"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="80"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="79"/>
-      <c r="AR17" s="80"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="79"/>
-      <c r="AU17" s="80"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="79"/>
-      <c r="AX17" s="80"/>
-      <c r="AY17" s="78"/>
-      <c r="AZ17" s="79"/>
-      <c r="BA17" s="80"/>
-      <c r="BB17" s="78"/>
-      <c r="BC17" s="79"/>
-      <c r="BD17" s="80"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="79"/>
-      <c r="BG17" s="80"/>
-      <c r="BH17" s="78"/>
-      <c r="BI17" s="79"/>
-      <c r="BJ17" s="80"/>
-      <c r="BK17" s="78"/>
-      <c r="BL17" s="79"/>
-      <c r="BM17" s="80"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="40"/>
+      <c r="AX17" s="41"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="41"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="40"/>
+      <c r="BD17" s="41"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="40"/>
+      <c r="BG17" s="41"/>
+      <c r="BH17" s="39"/>
+      <c r="BI17" s="40"/>
+      <c r="BJ17" s="41"/>
+      <c r="BK17" s="39"/>
+      <c r="BL17" s="40"/>
+      <c r="BM17" s="41"/>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
@@ -31873,8 +31877,8 @@
       </c>
     </row>
     <row r="19" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13" t="s">
         <v>27</v>
       </c>
@@ -32066,10 +32070,10 @@
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="46">
         <v>1</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="18">
         <v>600</v>
       </c>
@@ -32202,10 +32206,10 @@
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A21" s="50">
+      <c r="A21" s="35">
         <v>2</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="22">
         <v>800</v>
       </c>
@@ -32338,10 +32342,10 @@
       </c>
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A22" s="50">
+      <c r="A22" s="35">
         <v>3</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="22">
         <v>1000</v>
       </c>
@@ -32474,10 +32478,10 @@
       </c>
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A23" s="50">
+      <c r="A23" s="35">
         <v>4</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="22">
         <v>1100</v>
       </c>
@@ -32610,10 +32614,10 @@
       </c>
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A24" s="50">
+      <c r="A24" s="35">
         <v>5</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="22">
         <v>1200</v>
       </c>
@@ -32746,10 +32750,10 @@
       </c>
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
+      <c r="A25" s="35">
         <v>6</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="22">
         <v>1300</v>
       </c>
@@ -32882,10 +32886,10 @@
       </c>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A26" s="50">
+      <c r="A26" s="35">
         <v>7</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="22">
         <v>1600</v>
       </c>
@@ -33018,10 +33022,10 @@
       </c>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A27" s="50">
+      <c r="A27" s="35">
         <v>8</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="22">
         <v>1900</v>
       </c>
@@ -33154,10 +33158,10 @@
       </c>
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A28" s="50">
+      <c r="A28" s="35">
         <v>9</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="22">
         <v>2200</v>
       </c>
@@ -33290,10 +33294,10 @@
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A29" s="50">
+      <c r="A29" s="35">
         <v>10</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="22">
         <v>2500</v>
       </c>
@@ -33426,10 +33430,10 @@
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A30" s="50">
+      <c r="A30" s="35">
         <v>11</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="22">
         <v>2800</v>
       </c>
@@ -33562,10 +33566,10 @@
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A31" s="50">
+      <c r="A31" s="35">
         <v>12</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="22">
         <v>3050</v>
       </c>
@@ -33698,10 +33702,10 @@
       </c>
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A32" s="50">
+      <c r="A32" s="35">
         <v>13</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="22">
         <v>3500</v>
       </c>
@@ -33834,10 +33838,10 @@
       </c>
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A33" s="50">
+      <c r="A33" s="35">
         <v>14</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="22">
         <v>3610</v>
       </c>
@@ -33970,10 +33974,10 @@
       </c>
     </row>
     <row r="34" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A34" s="50">
+      <c r="A34" s="35">
         <v>15</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="22">
         <v>3750</v>
       </c>
@@ -34106,10 +34110,10 @@
       </c>
     </row>
     <row r="35" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A35" s="50">
+      <c r="A35" s="35">
         <v>16</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="22">
         <v>3833</v>
       </c>
@@ -34242,10 +34246,10 @@
       </c>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A36" s="50">
+      <c r="A36" s="35">
         <v>17</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="22">
         <v>4000</v>
       </c>
@@ -34378,10 +34382,10 @@
       </c>
     </row>
     <row r="37" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A37" s="50">
+      <c r="A37" s="35">
         <v>18</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="22">
         <v>4100</v>
       </c>
@@ -34514,10 +34518,10 @@
       </c>
     </row>
     <row r="38" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A38" s="50">
+      <c r="A38" s="35">
         <v>19</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="22">
         <v>4150</v>
       </c>
@@ -34650,10 +34654,10 @@
       </c>
     </row>
     <row r="39" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="76">
+      <c r="A39" s="37">
         <v>20</v>
       </c>
-      <c r="B39" s="77"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="27">
         <v>4200</v>
       </c>
@@ -34792,48 +34796,307 @@
     </row>
   </sheetData>
   <mergeCells count="367">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="BK17:BM17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AV17:AX17"/>
-    <mergeCell ref="AY17:BA17"/>
-    <mergeCell ref="BB17:BD17"/>
-    <mergeCell ref="BE17:BG17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AO17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="BH17:BJ17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BM4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AS4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AV5:AX5"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BE6:BG6"/>
+    <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="BB7:BD7"/>
+    <mergeCell ref="BE7:BG7"/>
+    <mergeCell ref="BH7:BJ7"/>
+    <mergeCell ref="BK7:BM7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:AU7"/>
+    <mergeCell ref="AV7:AX7"/>
+    <mergeCell ref="AY7:BA7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="BE8:BG8"/>
+    <mergeCell ref="BH8:BJ8"/>
+    <mergeCell ref="BK8:BM8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AS8:AU8"/>
+    <mergeCell ref="AV8:AX8"/>
+    <mergeCell ref="AY8:BA8"/>
+    <mergeCell ref="BB8:BD8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="BH9:BJ9"/>
+    <mergeCell ref="BK9:BM9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AV9:AX9"/>
+    <mergeCell ref="AY9:BA9"/>
+    <mergeCell ref="BB9:BD9"/>
+    <mergeCell ref="BE9:BG9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="BK11:BM11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="BK10:BM10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AV10:AX10"/>
+    <mergeCell ref="AY10:BA10"/>
+    <mergeCell ref="BB10:BD10"/>
+    <mergeCell ref="BE10:BG10"/>
+    <mergeCell ref="BH10:BJ10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="AV11:AX11"/>
+    <mergeCell ref="AY11:BA11"/>
+    <mergeCell ref="BB11:BD11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="BH11:BJ11"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="BH12:BJ12"/>
+    <mergeCell ref="BK12:BM12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="AM12:AO12"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AV12:AX12"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BB12:BD12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="BH13:BJ13"/>
+    <mergeCell ref="BK13:BM13"/>
+    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AV13:AX13"/>
+    <mergeCell ref="AY13:BA13"/>
+    <mergeCell ref="BB13:BD13"/>
+    <mergeCell ref="BE13:BG13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AO13"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AO14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="BH14:BJ14"/>
+    <mergeCell ref="BK14:BM14"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AV14:AX14"/>
+    <mergeCell ref="AY14:BA14"/>
+    <mergeCell ref="BB14:BD14"/>
+    <mergeCell ref="BE14:BG14"/>
+    <mergeCell ref="BH15:BJ15"/>
+    <mergeCell ref="BK15:BM15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AV15:AX15"/>
+    <mergeCell ref="AY15:BA15"/>
+    <mergeCell ref="BB15:BD15"/>
+    <mergeCell ref="BE15:BG15"/>
     <mergeCell ref="AM15:AO15"/>
     <mergeCell ref="BH16:BJ16"/>
     <mergeCell ref="BK16:BM16"/>
@@ -34858,307 +35121,48 @@
     <mergeCell ref="AJ16:AL16"/>
     <mergeCell ref="AM16:AO16"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="BH14:BJ14"/>
-    <mergeCell ref="BK14:BM14"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AV14:AX14"/>
-    <mergeCell ref="AY14:BA14"/>
-    <mergeCell ref="BB14:BD14"/>
-    <mergeCell ref="BE14:BG14"/>
-    <mergeCell ref="BH15:BJ15"/>
-    <mergeCell ref="BK15:BM15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AV15:AX15"/>
-    <mergeCell ref="AY15:BA15"/>
-    <mergeCell ref="BB15:BD15"/>
-    <mergeCell ref="BE15:BG15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="AG15:AI15"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AV13:AX13"/>
-    <mergeCell ref="AY13:BA13"/>
-    <mergeCell ref="BB13:BD13"/>
-    <mergeCell ref="BE13:BG13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AO13"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AO14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="BK12:BM12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="AM12:AO12"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AV12:AX12"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BB12:BD12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="BH13:BJ13"/>
-    <mergeCell ref="BK13:BM13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="AV11:AX11"/>
-    <mergeCell ref="AY11:BA11"/>
-    <mergeCell ref="BB11:BD11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="BH11:BJ11"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="BH12:BJ12"/>
-    <mergeCell ref="BK11:BM11"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="BK10:BM10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AV10:AX10"/>
-    <mergeCell ref="AY10:BA10"/>
-    <mergeCell ref="BB10:BD10"/>
-    <mergeCell ref="BE10:BG10"/>
-    <mergeCell ref="BH10:BJ10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="BH9:BJ9"/>
-    <mergeCell ref="BK9:BM9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AV9:AX9"/>
-    <mergeCell ref="AY9:BA9"/>
-    <mergeCell ref="BB9:BD9"/>
-    <mergeCell ref="BE9:BG9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="BE8:BG8"/>
-    <mergeCell ref="BH8:BJ8"/>
-    <mergeCell ref="BK8:BM8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AS8:AU8"/>
-    <mergeCell ref="AV8:AX8"/>
-    <mergeCell ref="AY8:BA8"/>
-    <mergeCell ref="BB8:BD8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="BB7:BD7"/>
-    <mergeCell ref="BE7:BG7"/>
-    <mergeCell ref="BH7:BJ7"/>
-    <mergeCell ref="BK7:BM7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:AU7"/>
-    <mergeCell ref="AV7:AX7"/>
-    <mergeCell ref="AY7:BA7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="BH6:BJ6"/>
-    <mergeCell ref="BK6:BM6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:AU6"/>
-    <mergeCell ref="AV6:AX6"/>
-    <mergeCell ref="AY6:BA6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AV5:AX5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="BE6:BG6"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BM4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="BH17:BJ17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="BK17:BM17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="AV17:AX17"/>
+    <mergeCell ref="AY17:BA17"/>
+    <mergeCell ref="BB17:BD17"/>
+    <mergeCell ref="BE17:BG17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AO17"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Engine_Sample.xlsx
+++ b/data/Engine_Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DHILITP\OneDrive\Daimler_projects\Fuso_project\GUI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhilitp\GUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="44">
   <si>
     <t>Data number</t>
     <phoneticPr fontId="0"/>
@@ -152,6 +152,42 @@
   <si>
     <t>4P10_96kW</t>
   </si>
+  <si>
+    <t>4P10_129kW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1600-2860</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JP17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TF MY17~MY24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4P10_110kW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1600-2440</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1600-2130</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4P10_81kW</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="0_ "/>
     <numFmt numFmtId="166" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +211,15 @@
       <color theme="1"/>
       <name val="CorpoS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -551,33 +600,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -731,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,6 +792,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,12 +805,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,28 +834,52 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,19 +888,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,10 +909,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,16 +930,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,13 +942,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -928,19 +978,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,10 +1026,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8000,6 +8047,51 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8009,6 +8101,48 @@
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407.4366543152521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378.98770823757576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353.88569699256726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>341.04630662548999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219.38896770821268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134.06557289580678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8054,6 +8188,51 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8064,46 +8243,46 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.825772992458582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.179938779914945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41.469023027385269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>58.643062867009469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64.214153839375371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>72.047191522325932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>128.78435484615758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>125.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>117.80972450961724</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>89.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>55.848390947303365</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -11682,6 +11861,57 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11691,6 +11921,57 @@
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400.33589531576752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>368.33001115552923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340.59157821665605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316.32044939514202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>294.9047474938061</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>283.75052711240772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>188.53739412424522</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>127.27822670733394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11736,6 +12017,57 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11746,52 +12078,52 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.825772992458582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.179938779914945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41.469023027385269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>58.643062867009469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64.214153839375371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>72.047191522325932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>109.87196707154702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>107.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>106.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>105.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>98.174770424681029</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>76.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>53.020950947303362</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -12299,6 +12631,51 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12308,6 +12685,51 @@
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>407.4366543152521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>378.98770823757576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353.88569699256726</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>341.04630662548999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>219.38896770821268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134.06557289580678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12353,6 +12775,51 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12363,43 +12830,43 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>26.179938779914945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>41.469023027385269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>58.643062867009469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>64.214153839375371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>72.047191522325932</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>128.78435484615758</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>125.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>117.80972450961724</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>89.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>55.848390947303365</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -12913,6 +13380,51 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12922,6 +13434,48 @@
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407.4366543152521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378.98770823757576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353.88569699256726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>341.04630662548999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219.38896770821268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134.06557289580678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12967,6 +13521,51 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12977,46 +13576,46 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.825772992458582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.179938779914945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41.469023027385269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>58.643062867009469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64.214153839375371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>72.047191522325932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>128.78435484615758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>125.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>117.80972450961724</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>89.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>55.848390947303365</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -13530,6 +14129,57 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -13539,6 +14189,57 @@
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400.33589531576752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>368.33001115552923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340.59157821665605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316.32044939514202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>294.9047474938061</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>283.75052711240772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>188.53739412424522</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>127.27822670733394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13584,6 +14285,57 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -13594,52 +14346,52 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.825772992458582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.179938779914945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41.469023027385269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>58.643062867009469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64.214153839375371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>72.047191522325932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>109.87196707154702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>107.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>106.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>105.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>98.174770424681029</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>76.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>53.020950947303362</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -14147,6 +14899,60 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -14156,6 +14962,60 @@
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>412.35598891991066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>374.01411626595404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>341.5709932510677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>313.7626020954508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>289.66199642724951</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>268.57396646757337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>242.82497031734891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164.5417257811595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121.99917967185509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14201,6 +15061,60 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -14211,55 +15125,55 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.825772992458582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.179938779914945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41.469023027385269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>58.643062867009469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64.214153839375371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>72.047191522325932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>95.91282371409639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>93.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>91.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>89.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>82.466807156732074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>50.821830947303361</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -14764,6 +15678,60 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -14773,6 +15741,60 @@
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>363.14226451953584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318.3098861837907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290.15170394445533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>266.01611916788221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245.41692224770262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>227.39262494254547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>204.62778397529402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>138.83208112785329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.34305784812773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14818,6 +15840,60 @@
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -14828,55 +15904,55 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.825772992458582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.179938779914945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41.469023027385269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>58.643062867009469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64.214153839375371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>72.047191522325932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>77.283179278308907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>77.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>76.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>70.685834705770347</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>56.699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>48.46563094730336</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -30483,8 +31559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -30496,468 +31572,508 @@
   <sheetData>
     <row r="1" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="89" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90">
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98">
         <v>2</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="89">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="97">
         <v>3</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="89">
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="97">
         <v>4</v>
       </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="89">
+      <c r="P2" s="98"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="97">
         <v>5</v>
       </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="89">
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="97">
         <v>6</v>
       </c>
-      <c r="V2" s="90"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="89">
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="97">
         <v>7</v>
       </c>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="89">
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="97">
         <v>8</v>
       </c>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="89">
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="97">
         <v>9</v>
       </c>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="89">
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="97">
         <v>10</v>
       </c>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="89">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="97">
         <v>11</v>
       </c>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="89">
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="97">
         <v>12</v>
       </c>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="89">
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="97">
         <v>13</v>
       </c>
-      <c r="AQ2" s="90"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="89">
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="97">
         <v>14</v>
       </c>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="89">
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="97">
         <v>15</v>
       </c>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="89">
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="97">
         <v>16</v>
       </c>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="91"/>
-      <c r="BB2" s="89">
+      <c r="AZ2" s="98"/>
+      <c r="BA2" s="99"/>
+      <c r="BB2" s="97">
         <v>17</v>
       </c>
-      <c r="BC2" s="90"/>
-      <c r="BD2" s="91"/>
-      <c r="BE2" s="89">
+      <c r="BC2" s="98"/>
+      <c r="BD2" s="99"/>
+      <c r="BE2" s="97">
         <v>18</v>
       </c>
-      <c r="BF2" s="90"/>
-      <c r="BG2" s="91"/>
-      <c r="BH2" s="89">
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="99"/>
+      <c r="BH2" s="97">
         <v>19</v>
       </c>
-      <c r="BI2" s="90"/>
-      <c r="BJ2" s="91"/>
-      <c r="BK2" s="89">
+      <c r="BI2" s="98"/>
+      <c r="BJ2" s="99"/>
+      <c r="BK2" s="97">
         <v>20</v>
       </c>
-      <c r="BL2" s="90"/>
-      <c r="BM2" s="91"/>
+      <c r="BL2" s="98"/>
+      <c r="BM2" s="99"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="92">
+      <c r="B3" s="44"/>
+      <c r="C3" s="100">
         <v>20211216</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="88"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="87"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="88"/>
-      <c r="BB3" s="86"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="88"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="87"/>
-      <c r="BG3" s="88"/>
-      <c r="BH3" s="86"/>
-      <c r="BI3" s="87"/>
-      <c r="BJ3" s="88"/>
-      <c r="BK3" s="86"/>
-      <c r="BL3" s="87"/>
-      <c r="BM3" s="88"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="100">
+        <v>20221018</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="100">
+        <v>20221018</v>
+      </c>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="100">
+        <v>20221018</v>
+      </c>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="100">
+        <v>20221018</v>
+      </c>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="95"/>
+      <c r="AR3" s="96"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="95"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="95"/>
+      <c r="AX3" s="96"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="95"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="95"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="94"/>
+      <c r="BI3" s="95"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="95"/>
+      <c r="BM3" s="96"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="75"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="75"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="74"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="75"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="74"/>
-      <c r="BM4" s="75"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="82"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="82"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="73"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="73"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="75"/>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="75"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="75"/>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="75"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="81"/>
+      <c r="BD5" s="82"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="82"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="81"/>
+      <c r="BJ5" s="82"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="81"/>
+      <c r="BM5" s="82"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="82"/>
-      <c r="AO6" s="83"/>
-      <c r="AP6" s="81"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="83"/>
-      <c r="AS6" s="81"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="83"/>
-      <c r="AV6" s="81"/>
-      <c r="AW6" s="82"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="81"/>
-      <c r="AZ6" s="82"/>
-      <c r="BA6" s="83"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="82"/>
-      <c r="BD6" s="83"/>
-      <c r="BE6" s="81"/>
-      <c r="BF6" s="82"/>
-      <c r="BG6" s="83"/>
-      <c r="BH6" s="81"/>
-      <c r="BI6" s="82"/>
-      <c r="BJ6" s="83"/>
-      <c r="BK6" s="81"/>
-      <c r="BL6" s="82"/>
-      <c r="BM6" s="83"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="90"/>
+      <c r="BK6" s="88"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="90"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="74"/>
-      <c r="BG7" s="75"/>
-      <c r="BH7" s="73"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="75"/>
-      <c r="BK7" s="73"/>
-      <c r="BL7" s="74"/>
-      <c r="BM7" s="75"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="80"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="80"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="82"/>
+      <c r="AP7" s="80"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="80"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="80"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="82"/>
+      <c r="AY7" s="80"/>
+      <c r="AZ7" s="81"/>
+      <c r="BA7" s="82"/>
+      <c r="BB7" s="80"/>
+      <c r="BC7" s="81"/>
+      <c r="BD7" s="82"/>
+      <c r="BE7" s="80"/>
+      <c r="BF7" s="81"/>
+      <c r="BG7" s="82"/>
+      <c r="BH7" s="80"/>
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="82"/>
+      <c r="BK7" s="80"/>
+      <c r="BL7" s="81"/>
+      <c r="BM7" s="82"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -30966,71 +32082,79 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="80">
         <v>96</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="76"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="76"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="78"/>
-      <c r="BB8" s="76"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="78"/>
-      <c r="BE8" s="76"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="78"/>
-      <c r="BH8" s="76"/>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="78"/>
-      <c r="BK8" s="76"/>
-      <c r="BL8" s="77"/>
-      <c r="BM8" s="78"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83">
+        <v>129</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="86">
+        <v>110</v>
+      </c>
+      <c r="J8" s="84"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="83">
+        <v>96</v>
+      </c>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="83">
+        <v>81</v>
+      </c>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="84"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="85"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="84"/>
+      <c r="BD8" s="85"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="84"/>
+      <c r="BG8" s="85"/>
+      <c r="BH8" s="83"/>
+      <c r="BI8" s="84"/>
+      <c r="BJ8" s="85"/>
+      <c r="BK8" s="83"/>
+      <c r="BL8" s="84"/>
+      <c r="BM8" s="85"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -31039,71 +32163,79 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="80">
         <v>3050</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="74"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="75"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="74"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="74"/>
-      <c r="BG9" s="75"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="73"/>
-      <c r="BL9" s="74"/>
-      <c r="BM9" s="75"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="80">
+        <v>2860</v>
+      </c>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="81">
+        <v>2440</v>
+      </c>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="80">
+        <v>2130</v>
+      </c>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="80">
+        <v>2130</v>
+      </c>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="81"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="81"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="81"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="80"/>
+      <c r="AT9" s="81"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="80"/>
+      <c r="AW9" s="81"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="80"/>
+      <c r="AZ9" s="81"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="81"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="81"/>
+      <c r="BG9" s="82"/>
+      <c r="BH9" s="80"/>
+      <c r="BI9" s="81"/>
+      <c r="BJ9" s="82"/>
+      <c r="BK9" s="80"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="82"/>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -31112,71 +32244,79 @@
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="80">
         <v>300</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="78"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="78"/>
-      <c r="BK10" s="76"/>
-      <c r="BL10" s="77"/>
-      <c r="BM10" s="78"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83">
+        <v>430</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="83">
+        <v>430</v>
+      </c>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="83">
+        <v>430</v>
+      </c>
+      <c r="M10" s="84"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="83">
+        <v>430</v>
+      </c>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="85"/>
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="84"/>
+      <c r="BG10" s="85"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="84"/>
+      <c r="BJ10" s="85"/>
+      <c r="BK10" s="83"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="85"/>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -31185,71 +32325,79 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="80">
         <v>1600</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="75"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="75"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="75"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="74"/>
-      <c r="AX11" s="75"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="75"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="74"/>
-      <c r="BD11" s="75"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="74"/>
-      <c r="BG11" s="75"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="74"/>
-      <c r="BJ11" s="75"/>
-      <c r="BK11" s="73"/>
-      <c r="BL11" s="74"/>
-      <c r="BM11" s="75"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="80">
+        <v>1600</v>
+      </c>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="80"/>
+      <c r="AN11" s="81"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="80"/>
+      <c r="AQ11" s="81"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="80"/>
+      <c r="AT11" s="81"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="80"/>
+      <c r="AW11" s="81"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="80"/>
+      <c r="AZ11" s="81"/>
+      <c r="BA11" s="82"/>
+      <c r="BB11" s="80"/>
+      <c r="BC11" s="81"/>
+      <c r="BD11" s="82"/>
+      <c r="BE11" s="80"/>
+      <c r="BF11" s="81"/>
+      <c r="BG11" s="82"/>
+      <c r="BH11" s="80"/>
+      <c r="BI11" s="81"/>
+      <c r="BJ11" s="82"/>
+      <c r="BK11" s="80"/>
+      <c r="BL11" s="81"/>
+      <c r="BM11" s="82"/>
     </row>
     <row r="12" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -31258,71 +32406,79 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="75">
         <v>4000</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="62"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="61"/>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="61"/>
-      <c r="BG12" s="62"/>
-      <c r="BH12" s="60"/>
-      <c r="BI12" s="61"/>
-      <c r="BJ12" s="62"/>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="61"/>
-      <c r="BM12" s="62"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="69">
+        <v>0</v>
+      </c>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="78">
+        <v>0</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="69">
+        <v>0</v>
+      </c>
+      <c r="M12" s="70"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="69">
+        <v>0</v>
+      </c>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="71"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="71"/>
+      <c r="BH12" s="69"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="71"/>
+      <c r="BK12" s="69"/>
+      <c r="BL12" s="70"/>
+      <c r="BM12" s="71"/>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -31331,361 +32487,393 @@
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="72">
         <v>1</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="57"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="57"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="57"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="57"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="57"/>
-      <c r="BL13" s="58"/>
-      <c r="BM13" s="59"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="66">
+        <v>1</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="66">
+        <v>1</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="66">
+        <v>1</v>
+      </c>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="66">
+        <v>1</v>
+      </c>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="67"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="67"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="66"/>
+      <c r="BC13" s="67"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="66"/>
+      <c r="BF13" s="67"/>
+      <c r="BG13" s="68"/>
+      <c r="BH13" s="66"/>
+      <c r="BI13" s="67"/>
+      <c r="BJ13" s="68"/>
+      <c r="BK13" s="66"/>
+      <c r="BL13" s="67"/>
+      <c r="BM13" s="68"/>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="54"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="55"/>
-      <c r="BE14" s="54"/>
-      <c r="BF14" s="52"/>
-      <c r="BG14" s="55"/>
-      <c r="BH14" s="54"/>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="55"/>
-      <c r="BK14" s="54"/>
-      <c r="BL14" s="52"/>
-      <c r="BM14" s="55"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="59"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="60"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="61"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="60"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="59"/>
+      <c r="BF14" s="60"/>
+      <c r="BG14" s="61"/>
+      <c r="BH14" s="59"/>
+      <c r="BI14" s="60"/>
+      <c r="BJ14" s="61"/>
+      <c r="BK14" s="59"/>
+      <c r="BL14" s="60"/>
+      <c r="BM14" s="61"/>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="55"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="55"/>
-      <c r="AV15" s="54"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="55"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="55"/>
-      <c r="BB15" s="54"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="55"/>
-      <c r="BE15" s="54"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="55"/>
-      <c r="BH15" s="54"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="55"/>
-      <c r="BK15" s="54"/>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="55"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="60"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="60"/>
+      <c r="AU15" s="61"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="59"/>
+      <c r="BC15" s="60"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="60"/>
+      <c r="BG15" s="61"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="60"/>
+      <c r="BJ15" s="61"/>
+      <c r="BK15" s="59"/>
+      <c r="BL15" s="60"/>
+      <c r="BM15" s="61"/>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="55"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="55"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="55"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="55"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="55"/>
-      <c r="BB16" s="54"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="55"/>
-      <c r="BE16" s="54"/>
-      <c r="BF16" s="52"/>
-      <c r="BG16" s="55"/>
-      <c r="BH16" s="54"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="55"/>
-      <c r="BK16" s="54"/>
-      <c r="BL16" s="52"/>
-      <c r="BM16" s="55"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="60"/>
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="59"/>
+      <c r="AW16" s="60"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="59"/>
+      <c r="BC16" s="60"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="59"/>
+      <c r="BF16" s="60"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="59"/>
+      <c r="BI16" s="60"/>
+      <c r="BJ16" s="61"/>
+      <c r="BK16" s="59"/>
+      <c r="BL16" s="60"/>
+      <c r="BM16" s="61"/>
     </row>
     <row r="17" spans="1:65" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="40"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="39"/>
-      <c r="BF17" s="40"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="39"/>
-      <c r="BI17" s="40"/>
-      <c r="BJ17" s="41"/>
-      <c r="BK17" s="39"/>
-      <c r="BL17" s="40"/>
-      <c r="BM17" s="41"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="47"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="48"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="47"/>
+      <c r="BC17" s="48"/>
+      <c r="BD17" s="49"/>
+      <c r="BE17" s="47"/>
+      <c r="BF17" s="48"/>
+      <c r="BG17" s="49"/>
+      <c r="BH17" s="47"/>
+      <c r="BI17" s="48"/>
+      <c r="BJ17" s="49"/>
+      <c r="BK17" s="47"/>
+      <c r="BL17" s="48"/>
+      <c r="BM17" s="49"/>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
@@ -31877,8 +33065,8 @@
       </c>
     </row>
     <row r="19" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="13" t="s">
         <v>27</v>
       </c>
@@ -32070,10 +33258,10 @@
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A20" s="46">
+      <c r="A20" s="54">
         <v>1</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="18">
         <v>600</v>
       </c>
@@ -32084,29 +33272,45 @@
         <f>C20/60*D20*2*PI()/1000</f>
         <v>14.451326206513048</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="21">
+      <c r="F20" s="18">
+        <v>650</v>
+      </c>
+      <c r="G20" s="19">
+        <v>232.5</v>
+      </c>
+      <c r="H20" s="34">
         <f>F20/60*G20*2*PI()/1000</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20">
+        <v>15.825772992458582</v>
+      </c>
+      <c r="I20" s="18">
+        <v>650</v>
+      </c>
+      <c r="J20" s="19">
+        <v>232.5</v>
+      </c>
+      <c r="K20" s="39">
         <f t="shared" ref="K20:K39" si="0">I20/60*J20*2*PI()/1000</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="21">
+        <v>15.825772992458582</v>
+      </c>
+      <c r="L20" s="18">
+        <v>650</v>
+      </c>
+      <c r="M20" s="19">
+        <v>232.5</v>
+      </c>
+      <c r="N20" s="34">
         <f t="shared" ref="N20:N39" si="1">L20/60*M20*2*PI()/1000</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="21">
+        <v>15.825772992458582</v>
+      </c>
+      <c r="O20" s="18">
+        <v>650</v>
+      </c>
+      <c r="P20" s="19">
+        <v>232.5</v>
+      </c>
+      <c r="Q20" s="34">
         <f t="shared" ref="Q20:Q39" si="2">O20/60*P20*2*PI()/1000</f>
-        <v>0</v>
+        <v>15.825772992458582</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
@@ -32206,10 +33410,10 @@
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="A21" s="43">
         <v>2</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="22">
         <v>800</v>
       </c>
@@ -32220,29 +33424,45 @@
         <f t="shared" ref="E21:E39" si="19">C21/60*D21*2*PI()/1000</f>
         <v>20.106192982974676</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="25">
+      <c r="F21" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="23">
+        <v>250</v>
+      </c>
+      <c r="H21" s="35">
         <f t="shared" ref="H21:H39" si="20">F21/60*G21*2*PI()/1000</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24">
+        <v>26.179938779914945</v>
+      </c>
+      <c r="I21" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="23">
+        <v>250</v>
+      </c>
+      <c r="K21" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="25">
+        <v>26.179938779914945</v>
+      </c>
+      <c r="L21" s="22">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="23">
+        <v>250</v>
+      </c>
+      <c r="N21" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="25">
+        <v>26.179938779914945</v>
+      </c>
+      <c r="O21" s="22">
+        <v>1000</v>
+      </c>
+      <c r="P21" s="23">
+        <v>250</v>
+      </c>
+      <c r="Q21" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26.179938779914945</v>
       </c>
       <c r="R21" s="22"/>
       <c r="S21" s="23"/>
@@ -32342,10 +33562,10 @@
       </c>
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+      <c r="A22" s="43">
         <v>3</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="22">
         <v>1000</v>
       </c>
@@ -32356,29 +33576,45 @@
         <f t="shared" si="19"/>
         <v>26.179938779914945</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25">
+      <c r="F22" s="22">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="23">
+        <v>330</v>
+      </c>
+      <c r="H22" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24">
+        <v>41.469023027385269</v>
+      </c>
+      <c r="I22" s="22">
+        <v>1200</v>
+      </c>
+      <c r="J22" s="23">
+        <v>330</v>
+      </c>
+      <c r="K22" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="25">
+        <v>41.469023027385269</v>
+      </c>
+      <c r="L22" s="22">
+        <v>1200</v>
+      </c>
+      <c r="M22" s="23">
+        <v>330</v>
+      </c>
+      <c r="N22" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="25">
+        <v>41.469023027385269</v>
+      </c>
+      <c r="O22" s="22">
+        <v>1200</v>
+      </c>
+      <c r="P22" s="23">
+        <v>330</v>
+      </c>
+      <c r="Q22" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>41.469023027385269</v>
       </c>
       <c r="R22" s="22"/>
       <c r="S22" s="23"/>
@@ -32478,10 +33714,10 @@
       </c>
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="A23" s="43">
         <v>4</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="22">
         <v>1100</v>
       </c>
@@ -32492,29 +33728,45 @@
         <f t="shared" si="19"/>
         <v>30.756192078644077</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="25">
+      <c r="F23" s="22">
+        <v>1400</v>
+      </c>
+      <c r="G23" s="23">
+        <v>400</v>
+      </c>
+      <c r="H23" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24">
+        <v>58.643062867009469</v>
+      </c>
+      <c r="I23" s="22">
+        <v>1400</v>
+      </c>
+      <c r="J23" s="23">
+        <v>400</v>
+      </c>
+      <c r="K23" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="25">
+        <v>58.643062867009469</v>
+      </c>
+      <c r="L23" s="22">
+        <v>1400</v>
+      </c>
+      <c r="M23" s="23">
+        <v>400</v>
+      </c>
+      <c r="N23" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="25">
+        <v>58.643062867009469</v>
+      </c>
+      <c r="O23" s="22">
+        <v>1400</v>
+      </c>
+      <c r="P23" s="23">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>58.643062867009469</v>
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
@@ -32614,10 +33866,10 @@
       </c>
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+      <c r="A24" s="43">
         <v>5</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="22">
         <v>1200</v>
       </c>
@@ -32628,29 +33880,45 @@
         <f t="shared" si="19"/>
         <v>35.562828838636456</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="25">
+      <c r="F24" s="22">
+        <v>1460</v>
+      </c>
+      <c r="G24" s="23">
+        <v>420</v>
+      </c>
+      <c r="H24" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24">
+        <v>64.214153839375371</v>
+      </c>
+      <c r="I24" s="22">
+        <v>1460</v>
+      </c>
+      <c r="J24" s="23">
+        <v>420</v>
+      </c>
+      <c r="K24" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="25">
+        <v>64.214153839375371</v>
+      </c>
+      <c r="L24" s="22">
+        <v>1460</v>
+      </c>
+      <c r="M24" s="23">
+        <v>420</v>
+      </c>
+      <c r="N24" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="25">
+        <v>64.214153839375371</v>
+      </c>
+      <c r="O24" s="22">
+        <v>1460</v>
+      </c>
+      <c r="P24" s="23">
+        <v>420</v>
+      </c>
+      <c r="Q24" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>64.214153839375371</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="23"/>
@@ -32750,10 +34018,10 @@
       </c>
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="A25" s="43">
         <v>6</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="22">
         <v>1300</v>
       </c>
@@ -32764,29 +34032,45 @@
         <f t="shared" si="19"/>
         <v>40.840704496667314</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="25">
+      <c r="F25" s="22">
+        <v>1600</v>
+      </c>
+      <c r="G25" s="23">
+        <v>430</v>
+      </c>
+      <c r="H25" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24">
+        <v>72.047191522325932</v>
+      </c>
+      <c r="I25" s="22">
+        <v>1600</v>
+      </c>
+      <c r="J25" s="23">
+        <v>430</v>
+      </c>
+      <c r="K25" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="25">
+        <v>72.047191522325932</v>
+      </c>
+      <c r="L25" s="22">
+        <v>1600</v>
+      </c>
+      <c r="M25" s="23">
+        <v>430</v>
+      </c>
+      <c r="N25" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="25">
+        <v>72.047191522325932</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1600</v>
+      </c>
+      <c r="P25" s="23">
+        <v>430</v>
+      </c>
+      <c r="Q25" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.047191522325932</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="23"/>
@@ -32886,10 +34170,10 @@
       </c>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="A26" s="43">
         <v>7</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="22">
         <v>1600</v>
       </c>
@@ -32900,29 +34184,45 @@
         <f t="shared" si="19"/>
         <v>50.26548245743669</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="25">
+      <c r="F26" s="22">
+        <v>2860</v>
+      </c>
+      <c r="G26" s="23">
+        <v>430</v>
+      </c>
+      <c r="H26" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24">
+        <v>128.78435484615758</v>
+      </c>
+      <c r="I26" s="22">
+        <v>2440</v>
+      </c>
+      <c r="J26" s="23">
+        <v>430</v>
+      </c>
+      <c r="K26" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="25">
+        <v>109.87196707154702</v>
+      </c>
+      <c r="L26" s="22">
+        <v>2130</v>
+      </c>
+      <c r="M26" s="23">
+        <v>430</v>
+      </c>
+      <c r="N26" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="25">
+        <v>95.91282371409639</v>
+      </c>
+      <c r="O26" s="22">
+        <v>1800</v>
+      </c>
+      <c r="P26" s="23">
+        <v>410</v>
+      </c>
+      <c r="Q26" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77.283179278308907</v>
       </c>
       <c r="R26" s="22"/>
       <c r="S26" s="23"/>
@@ -33022,10 +34322,10 @@
       </c>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+      <c r="A27" s="43">
         <v>8</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="22">
         <v>1900</v>
       </c>
@@ -33036,29 +34336,45 @@
         <f t="shared" si="19"/>
         <v>59.690260418206066</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="25">
+      <c r="F27" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G27" s="23">
+        <v>407.4366543152521</v>
+      </c>
+      <c r="H27" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24">
+        <v>128</v>
+      </c>
+      <c r="I27" s="22">
+        <v>2600</v>
+      </c>
+      <c r="J27" s="23">
+        <v>400.33589531576752</v>
+      </c>
+      <c r="K27" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="25">
+        <v>109</v>
+      </c>
+      <c r="L27" s="22">
+        <v>2200</v>
+      </c>
+      <c r="M27" s="23">
+        <v>412.35598891991066</v>
+      </c>
+      <c r="N27" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="25">
+        <v>95</v>
+      </c>
+      <c r="O27" s="22">
+        <v>2130</v>
+      </c>
+      <c r="P27" s="23">
+        <v>363.14226451953584</v>
+      </c>
+      <c r="Q27" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
@@ -33158,10 +34474,10 @@
       </c>
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="A28" s="43">
         <v>9</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="22">
         <v>2200</v>
       </c>
@@ -33172,29 +34488,45 @@
         <f t="shared" si="19"/>
         <v>69.115038378975441</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="25">
+      <c r="F28" s="22">
+        <v>3200</v>
+      </c>
+      <c r="G28" s="23">
+        <v>378.98770823757576</v>
+      </c>
+      <c r="H28" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24">
+        <v>127</v>
+      </c>
+      <c r="I28" s="22">
+        <v>2800</v>
+      </c>
+      <c r="J28" s="23">
+        <v>368.33001115552923</v>
+      </c>
+      <c r="K28" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="25">
+        <v>107.99999999999999</v>
+      </c>
+      <c r="L28" s="22">
+        <v>2400</v>
+      </c>
+      <c r="M28" s="23">
+        <v>374.01411626595404</v>
+      </c>
+      <c r="N28" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="25">
+        <v>94</v>
+      </c>
+      <c r="O28" s="22">
+        <v>2400</v>
+      </c>
+      <c r="P28" s="23">
+        <v>318.3098861837907</v>
+      </c>
+      <c r="Q28" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R28" s="22"/>
       <c r="S28" s="23"/>
@@ -33294,10 +34626,10 @@
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+      <c r="A29" s="43">
         <v>10</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="22">
         <v>2500</v>
       </c>
@@ -33308,29 +34640,45 @@
         <f t="shared" si="19"/>
         <v>78.539816339744817</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="25">
+      <c r="F29" s="22">
+        <v>3400</v>
+      </c>
+      <c r="G29" s="23">
+        <v>353.88569699256726</v>
+      </c>
+      <c r="H29" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24">
+        <v>125.99999999999999</v>
+      </c>
+      <c r="I29" s="22">
+        <v>3000</v>
+      </c>
+      <c r="J29" s="23">
+        <v>340.59157821665605</v>
+      </c>
+      <c r="K29" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="25">
+        <v>107</v>
+      </c>
+      <c r="L29" s="22">
+        <v>2600</v>
+      </c>
+      <c r="M29" s="23">
+        <v>341.5709932510677</v>
+      </c>
+      <c r="N29" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="25">
+        <v>93.000000000000014</v>
+      </c>
+      <c r="O29" s="22">
+        <v>2600</v>
+      </c>
+      <c r="P29" s="23">
+        <v>290.15170394445533</v>
+      </c>
+      <c r="Q29" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
@@ -33430,10 +34778,10 @@
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
+      <c r="A30" s="43">
         <v>11</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="22">
         <v>2800</v>
       </c>
@@ -33444,29 +34792,45 @@
         <f t="shared" si="19"/>
         <v>87.964594300514207</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="25">
+      <c r="F30" s="22">
+        <v>3500</v>
+      </c>
+      <c r="G30" s="23">
+        <v>341.04630662548999</v>
+      </c>
+      <c r="H30" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24">
+        <v>125</v>
+      </c>
+      <c r="I30" s="22">
+        <v>3200</v>
+      </c>
+      <c r="J30" s="23">
+        <v>316.32044939514202</v>
+      </c>
+      <c r="K30" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="25">
+        <v>106.00000000000001</v>
+      </c>
+      <c r="L30" s="22">
+        <v>2800</v>
+      </c>
+      <c r="M30" s="23">
+        <v>313.7626020954508</v>
+      </c>
+      <c r="N30" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="25">
+        <v>91.999999999999986</v>
+      </c>
+      <c r="O30" s="22">
+        <v>2800</v>
+      </c>
+      <c r="P30" s="23">
+        <v>266.01611916788221</v>
+      </c>
+      <c r="Q30" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="R30" s="22"/>
       <c r="S30" s="23"/>
@@ -33566,10 +34930,10 @@
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="A31" s="43">
         <v>12</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="22">
         <v>3050</v>
       </c>
@@ -33580,29 +34944,45 @@
         <f t="shared" si="19"/>
         <v>95.818575934488692</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="25">
+      <c r="F31" s="22">
+        <v>3750</v>
+      </c>
+      <c r="G31" s="23">
+        <v>300</v>
+      </c>
+      <c r="H31" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24">
+        <v>117.80972450961724</v>
+      </c>
+      <c r="I31" s="22">
+        <v>3400</v>
+      </c>
+      <c r="J31" s="23">
+        <v>294.9047474938061</v>
+      </c>
+      <c r="K31" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="25">
+        <v>105.00000000000001</v>
+      </c>
+      <c r="L31" s="22">
+        <v>3000</v>
+      </c>
+      <c r="M31" s="23">
+        <v>289.66199642724951</v>
+      </c>
+      <c r="N31" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="25">
+        <v>91</v>
+      </c>
+      <c r="O31" s="22">
+        <v>3000</v>
+      </c>
+      <c r="P31" s="23">
+        <v>245.41692224770262</v>
+      </c>
+      <c r="Q31" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="23"/>
@@ -33702,10 +35082,10 @@
       </c>
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
+      <c r="A32" s="43">
         <v>13</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="22">
         <v>3500</v>
       </c>
@@ -33716,29 +35096,45 @@
         <f t="shared" si="19"/>
         <v>93.828900587215159</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25">
+      <c r="F32" s="22">
+        <v>3900</v>
+      </c>
+      <c r="G32" s="23">
+        <v>219.38896770821268</v>
+      </c>
+      <c r="H32" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24">
+        <v>89.600000000000009</v>
+      </c>
+      <c r="I32" s="22">
+        <v>3500</v>
+      </c>
+      <c r="J32" s="23">
+        <v>283.75052711240772</v>
+      </c>
+      <c r="K32" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="25">
+        <v>104</v>
+      </c>
+      <c r="L32" s="22">
+        <v>3200</v>
+      </c>
+      <c r="M32" s="23">
+        <v>268.57396646757337</v>
+      </c>
+      <c r="N32" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="25">
+        <v>90</v>
+      </c>
+      <c r="O32" s="22">
+        <v>3200</v>
+      </c>
+      <c r="P32" s="23">
+        <v>227.39262494254547</v>
+      </c>
+      <c r="Q32" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>76.2</v>
       </c>
       <c r="R32" s="22"/>
       <c r="S32" s="23"/>
@@ -33838,10 +35234,10 @@
       </c>
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="A33" s="43">
         <v>14</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="22">
         <v>3610</v>
       </c>
@@ -33852,29 +35248,45 @@
         <f t="shared" si="19"/>
         <v>90.313353688093045</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="25">
+      <c r="F33" s="22">
+        <v>3978</v>
+      </c>
+      <c r="G33" s="23">
+        <v>134.06557289580678</v>
+      </c>
+      <c r="H33" s="35">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24">
+        <v>55.848390947303365</v>
+      </c>
+      <c r="I33" s="22">
+        <v>3750</v>
+      </c>
+      <c r="J33" s="23">
+        <v>250</v>
+      </c>
+      <c r="K33" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="25">
+        <v>98.174770424681029</v>
+      </c>
+      <c r="L33" s="22">
+        <v>3500</v>
+      </c>
+      <c r="M33" s="23">
+        <v>242.82497031734891</v>
+      </c>
+      <c r="N33" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="25">
+        <v>89.000000000000014</v>
+      </c>
+      <c r="O33" s="22">
+        <v>3500</v>
+      </c>
+      <c r="P33" s="23">
+        <v>204.62778397529402</v>
+      </c>
+      <c r="Q33" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R33" s="22"/>
       <c r="S33" s="23"/>
@@ -33974,10 +35386,10 @@
       </c>
     </row>
     <row r="34" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
+      <c r="A34" s="43">
         <v>15</v>
       </c>
-      <c r="B34" s="36"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="22">
         <v>3750</v>
       </c>
@@ -33988,29 +35400,45 @@
         <f t="shared" si="19"/>
         <v>82.466807156732074</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="25">
+      <c r="F34" s="22">
+        <v>4200</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24">
+      <c r="I34" s="22">
+        <v>3900</v>
+      </c>
+      <c r="J34" s="23">
+        <v>188.53739412424522</v>
+      </c>
+      <c r="K34" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="25">
+        <v>76.999999999999986</v>
+      </c>
+      <c r="L34" s="22">
+        <v>3750</v>
+      </c>
+      <c r="M34" s="23">
+        <v>210</v>
+      </c>
+      <c r="N34" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="25">
+        <v>82.466807156732074</v>
+      </c>
+      <c r="O34" s="22">
+        <v>3750</v>
+      </c>
+      <c r="P34" s="23">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70.685834705770347</v>
       </c>
       <c r="R34" s="22"/>
       <c r="S34" s="23"/>
@@ -34110,10 +35538,10 @@
       </c>
     </row>
     <row r="35" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A35" s="35">
+      <c r="A35" s="43">
         <v>16</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="22">
         <v>3833</v>
       </c>
@@ -34126,27 +35554,39 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="25">
+      <c r="H35" s="35">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24">
+      <c r="I35" s="22">
+        <v>3978</v>
+      </c>
+      <c r="J35" s="23">
+        <v>127.27822670733394</v>
+      </c>
+      <c r="K35" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="25">
+        <v>53.020950947303362</v>
+      </c>
+      <c r="L35" s="22">
+        <v>3900</v>
+      </c>
+      <c r="M35" s="23">
+        <v>164.5417257811595</v>
+      </c>
+      <c r="N35" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="22"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="25">
+        <v>67.2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>3900</v>
+      </c>
+      <c r="P35" s="23">
+        <v>138.83208112785329</v>
+      </c>
+      <c r="Q35" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.699999999999989</v>
       </c>
       <c r="R35" s="22"/>
       <c r="S35" s="23"/>
@@ -34246,10 +35686,10 @@
       </c>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A36" s="35">
+      <c r="A36" s="43">
         <v>17</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="22">
         <v>4000</v>
       </c>
@@ -34262,27 +35702,39 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="25">
+      <c r="H36" s="35">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24">
+      <c r="I36" s="22">
+        <v>4200</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0</v>
+      </c>
+      <c r="K36" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="25">
+      <c r="L36" s="22">
+        <v>3978</v>
+      </c>
+      <c r="M36" s="23">
+        <v>121.99917967185509</v>
+      </c>
+      <c r="N36" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="22"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="25">
+        <v>50.821830947303361</v>
+      </c>
+      <c r="O36" s="22">
+        <v>3978</v>
+      </c>
+      <c r="P36" s="23">
+        <v>116.34305784812773</v>
+      </c>
+      <c r="Q36" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>48.46563094730336</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="23"/>
@@ -34382,10 +35834,10 @@
       </c>
     </row>
     <row r="37" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A37" s="35">
+      <c r="A37" s="43">
         <v>18</v>
       </c>
-      <c r="B37" s="36"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="22">
         <v>4100</v>
       </c>
@@ -34398,25 +35850,33 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="25">
+      <c r="H37" s="35">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="23"/>
-      <c r="K37" s="24">
+      <c r="K37" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="25">
+      <c r="L37" s="22">
+        <v>4200</v>
+      </c>
+      <c r="M37" s="23">
+        <v>0</v>
+      </c>
+      <c r="N37" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O37" s="22"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="25">
+      <c r="O37" s="22">
+        <v>4200</v>
+      </c>
+      <c r="P37" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34518,10 +35978,10 @@
       </c>
     </row>
     <row r="38" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
+      <c r="A38" s="43">
         <v>19</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="22">
         <v>4150</v>
       </c>
@@ -34534,25 +35994,25 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="25">
+      <c r="H38" s="35">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="23"/>
-      <c r="K38" s="24">
+      <c r="K38" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L38" s="22"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="25">
+      <c r="N38" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="22"/>
       <c r="P38" s="23"/>
-      <c r="Q38" s="25">
+      <c r="Q38" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34654,10 +36114,10 @@
       </c>
     </row>
     <row r="39" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="37">
+      <c r="A39" s="45">
         <v>20</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="27">
         <v>4200</v>
       </c>
@@ -34668,27 +36128,27 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="30">
+      <c r="F39" s="36"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="38">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29">
+      <c r="I39" s="41"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="30">
+      <c r="L39" s="36"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="30">
+      <c r="O39" s="36"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34790,9 +36250,9 @@
       </c>
     </row>
     <row r="40" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="367">
